--- a/my_models/标准结果.xlsx
+++ b/my_models/标准结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Y9000Xde\Codes\Python\markov_treeage\my_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0135C7-804C-415B-A3A7-833DBA8DB207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6986AD35-D4C5-45C7-AAD2-ED71271DCD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Markov Cohort Summary" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -179,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -503,7 +503,7 @@
   <dimension ref="A1:AB86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -514,14 +514,14 @@
     <col min="4" max="4" width="8.53125" customWidth="1"/>
     <col min="5" max="5" width="8.796875" customWidth="1"/>
     <col min="6" max="6" width="9.86328125" customWidth="1"/>
-    <col min="7" max="7" width="8.53125" customWidth="1"/>
+    <col min="7" max="7" width="10.9296875" customWidth="1"/>
     <col min="8" max="8" width="11.53125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="9.19921875" customWidth="1"/>
     <col min="11" max="11" width="9.796875" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" customWidth="1"/>
     <col min="13" max="13" width="8.796875" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.73046875" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" customWidth="1"/>
     <col min="16" max="16" width="8.1328125" customWidth="1"/>
     <col min="17" max="19" width="13.9296875" bestFit="1" customWidth="1"/>
